--- a/input/efficiency_in.xlsx
+++ b/input/efficiency_in.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/energy/Documents/research/prep-shot-data/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiany\Desktop\PREP-SHOT\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2E47FD-F493-DB4A-93D7-A57DAAD6A1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD49D684-B176-4B5E-AA19-2C5A18629448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,13 +394,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,12 +406,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -421,7 +419,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -429,7 +427,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -437,7 +435,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -445,7 +443,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2024</v>
       </c>
@@ -453,7 +451,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2025</v>
       </c>
@@ -461,7 +459,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2026</v>
       </c>
@@ -469,7 +467,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2027</v>
       </c>
@@ -477,7 +475,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2028</v>
       </c>
@@ -485,7 +483,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2029</v>
       </c>
@@ -493,7 +491,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2030</v>
       </c>
